--- a/Book (this.all).xlsx
+++ b/Book (this.all).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ctxnas2.app.syfbank.com\citrixdata2\XDFoldersW10\503000201\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E08A891-9EBD-4DB0-A4AC-168593831DC1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47768A9B-FB95-412E-A5FB-FF54A1ECF789}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{44DC5BE7-93F5-4429-A23D-4735B57D9126}"/>
   </bookViews>
@@ -2611,12 +2611,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -2633,7 +2639,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2688,6 +2694,27 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3007,8 +3034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{031DEB3A-8609-4D51-9D77-CA156B968C3F}">
   <dimension ref="A1:F499"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A488" workbookViewId="0">
-      <selection activeCell="A511" sqref="A511"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3358,23 +3385,23 @@
         <v>479</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:6" s="25" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="21" t="s">
         <v>425</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="22">
         <v>31.6</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="27">
         <v>34.4</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="27">
         <v>1331.8</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="23">
         <v>232.8</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="24" t="s">
         <v>426</v>
       </c>
     </row>
@@ -3478,43 +3505,43 @@
         <v>266</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+    <row r="24" spans="1:6" s="25" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="21" t="s">
         <v>582</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="22">
         <v>39.770000000000003</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="23">
         <v>71.63</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="23">
         <v>533.03</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="22">
         <v>269.58</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="F24" s="26" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+    <row r="25" spans="1:6" s="25" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="27">
         <v>21.16</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="23">
         <v>47.24</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="23">
         <v>594.70000000000005</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="23">
         <v>271.67</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="F25" s="24" t="s">
         <v>44</v>
       </c>
     </row>
@@ -3638,23 +3665,23 @@
         <v>459</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+    <row r="32" spans="1:6" s="25" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="B32" s="6">
+      <c r="B32" s="27">
         <v>21.66</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="23">
         <v>35.479999999999997</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="23">
         <v>503.88</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32" s="23">
         <v>331.44</v>
       </c>
-      <c r="F32" s="5" t="s">
+      <c r="F32" s="24" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3758,23 +3785,23 @@
         <v>599</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+    <row r="38" spans="1:6" s="25" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="21" t="s">
         <v>314</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B38" s="22">
         <v>58.2</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C38" s="23">
         <v>156.06</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D38" s="23">
         <v>1627.45</v>
       </c>
-      <c r="E38" s="3">
+      <c r="E38" s="23">
         <v>375.41</v>
       </c>
-      <c r="F38" s="5" t="s">
+      <c r="F38" s="24" t="s">
         <v>315</v>
       </c>
     </row>
@@ -3798,23 +3825,23 @@
         <v>438</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+    <row r="40" spans="1:6" s="25" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="B40" s="6">
+      <c r="B40" s="27">
         <v>25.95</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40" s="23">
         <v>36.53</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D40" s="23">
         <v>209.84</v>
       </c>
-      <c r="E40" s="3">
+      <c r="E40" s="23">
         <v>408.45</v>
       </c>
-      <c r="F40" s="5" t="s">
+      <c r="F40" s="24" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3938,43 +3965,43 @@
         <v>529</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+    <row r="47" spans="1:6" s="25" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="21" t="s">
         <v>524</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B47" s="22">
         <v>36.36</v>
       </c>
-      <c r="C47" s="9">
+      <c r="C47" s="28">
         <v>43.83</v>
       </c>
-      <c r="D47" s="9">
+      <c r="D47" s="28">
         <v>462.87</v>
       </c>
-      <c r="E47" s="9">
+      <c r="E47" s="28">
         <v>459.06</v>
       </c>
-      <c r="F47" s="10" t="s">
+      <c r="F47" s="29" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
+    <row r="48" spans="1:6" s="25" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="B48" s="6">
+      <c r="B48" s="27">
         <v>67.38</v>
       </c>
-      <c r="C48" s="6">
+      <c r="C48" s="27">
         <v>86.25</v>
       </c>
-      <c r="D48" s="6">
+      <c r="D48" s="27">
         <v>2060.52</v>
       </c>
-      <c r="E48" s="3">
+      <c r="E48" s="23">
         <v>472.6</v>
       </c>
-      <c r="F48" s="5" t="s">
+      <c r="F48" s="24" t="s">
         <v>109</v>
       </c>
     </row>
@@ -3998,23 +4025,23 @@
         <v>559</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
+    <row r="50" spans="1:6" s="25" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="B50" s="6">
+      <c r="B50" s="27">
         <v>96.64</v>
       </c>
-      <c r="C50" s="3">
+      <c r="C50" s="23">
         <v>181</v>
       </c>
-      <c r="D50" s="3">
+      <c r="D50" s="23">
         <v>13473.05</v>
       </c>
-      <c r="E50" s="3">
+      <c r="E50" s="23">
         <v>480.21</v>
       </c>
-      <c r="F50" s="5" t="s">
+      <c r="F50" s="24" t="s">
         <v>114</v>
       </c>
     </row>
@@ -4038,23 +4065,23 @@
         <v>805</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
+    <row r="52" spans="1:6" s="25" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="21" t="s">
         <v>432</v>
       </c>
-      <c r="B52" s="6">
+      <c r="B52" s="27">
         <v>15.54</v>
       </c>
-      <c r="C52" s="9">
+      <c r="C52" s="28">
         <v>30.48</v>
       </c>
-      <c r="D52" s="9">
+      <c r="D52" s="28">
         <v>210.44</v>
       </c>
-      <c r="E52" s="9">
+      <c r="E52" s="28">
         <v>501.47</v>
       </c>
-      <c r="F52" s="5" t="s">
+      <c r="F52" s="24" t="s">
         <v>433</v>
       </c>
     </row>
@@ -5258,23 +5285,23 @@
         <v>193</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A113" s="1" t="s">
+    <row r="113" spans="1:6" s="25" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A113" s="21" t="s">
         <v>356</v>
       </c>
-      <c r="B113" s="2">
+      <c r="B113" s="22">
         <v>40.299999999999997</v>
       </c>
-      <c r="C113" s="3">
+      <c r="C113" s="23">
         <v>55.26</v>
       </c>
-      <c r="D113" s="3">
+      <c r="D113" s="23">
         <v>494.37</v>
       </c>
-      <c r="E113" s="3">
+      <c r="E113" s="23">
         <v>1050.67</v>
       </c>
-      <c r="F113" s="5" t="s">
+      <c r="F113" s="24" t="s">
         <v>357</v>
       </c>
     </row>
@@ -5778,23 +5805,23 @@
         <v>593</v>
       </c>
     </row>
-    <row r="139" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A139" s="1" t="s">
+    <row r="139" spans="1:6" s="25" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A139" s="21" t="s">
         <v>368</v>
       </c>
-      <c r="B139" s="2">
+      <c r="B139" s="22">
         <v>63.82</v>
       </c>
-      <c r="C139" s="3">
+      <c r="C139" s="23">
         <v>82.42</v>
       </c>
-      <c r="D139" s="3">
+      <c r="D139" s="23">
         <v>237.98</v>
       </c>
-      <c r="E139" s="3">
+      <c r="E139" s="23">
         <v>1298.28</v>
       </c>
-      <c r="F139" s="5" t="s">
+      <c r="F139" s="24" t="s">
         <v>369</v>
       </c>
     </row>
@@ -5858,23 +5885,23 @@
         <v>114</v>
       </c>
     </row>
-    <row r="143" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A143" s="1" t="s">
+    <row r="143" spans="1:6" s="25" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A143" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="B143" s="2">
+      <c r="B143" s="22">
         <v>57.8</v>
       </c>
-      <c r="C143" s="3">
+      <c r="C143" s="23">
         <v>86.31</v>
       </c>
-      <c r="D143" s="3">
+      <c r="D143" s="23">
         <v>992.82</v>
       </c>
-      <c r="E143" s="2">
+      <c r="E143" s="22">
         <v>1328</v>
       </c>
-      <c r="F143" s="5" t="s">
+      <c r="F143" s="24" t="s">
         <v>165</v>
       </c>
     </row>
@@ -5958,23 +5985,23 @@
         <v>451</v>
       </c>
     </row>
-    <row r="148" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A148" s="1" t="s">
+    <row r="148" spans="1:6" s="25" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A148" s="21" t="s">
         <v>504</v>
       </c>
-      <c r="B148" s="2">
+      <c r="B148" s="22">
         <v>88.86</v>
       </c>
-      <c r="C148" s="3">
+      <c r="C148" s="23">
         <v>111.23</v>
       </c>
-      <c r="D148" s="3">
+      <c r="D148" s="23">
         <v>935.66</v>
       </c>
-      <c r="E148" s="3">
+      <c r="E148" s="23">
         <v>1445.54</v>
       </c>
-      <c r="F148" s="7" t="s">
+      <c r="F148" s="26" t="s">
         <v>505</v>
       </c>
     </row>
@@ -6138,23 +6165,23 @@
         <v>493</v>
       </c>
     </row>
-    <row r="157" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A157" s="1" t="s">
+    <row r="157" spans="1:6" s="25" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A157" s="21" t="s">
         <v>210</v>
       </c>
-      <c r="B157" s="2">
+      <c r="B157" s="22">
         <v>56.09</v>
       </c>
-      <c r="C157" s="3">
+      <c r="C157" s="23">
         <v>83.74</v>
       </c>
-      <c r="D157" s="3">
+      <c r="D157" s="23">
         <v>493.29</v>
       </c>
-      <c r="E157" s="3">
+      <c r="E157" s="23">
         <v>1558.69</v>
       </c>
-      <c r="F157" s="5" t="s">
+      <c r="F157" s="24" t="s">
         <v>211</v>
       </c>
     </row>
@@ -6178,23 +6205,23 @@
         <v>767</v>
       </c>
     </row>
-    <row r="159" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A159" s="1" t="s">
+    <row r="159" spans="1:6" s="25" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A159" s="21" t="s">
         <v>366</v>
       </c>
-      <c r="B159" s="2">
+      <c r="B159" s="22">
         <v>29.82</v>
       </c>
-      <c r="C159" s="3">
+      <c r="C159" s="23">
         <v>57.59</v>
       </c>
-      <c r="D159" s="3">
+      <c r="D159" s="23">
         <v>266.58999999999997</v>
       </c>
-      <c r="E159" s="3">
+      <c r="E159" s="23">
         <v>1573.78</v>
       </c>
-      <c r="F159" s="5" t="s">
+      <c r="F159" s="24" t="s">
         <v>367</v>
       </c>
     </row>
@@ -6258,23 +6285,23 @@
         <v>639</v>
       </c>
     </row>
-    <row r="163" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A163" s="1" t="s">
+    <row r="163" spans="1:6" s="25" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A163" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="B163" s="2">
+      <c r="B163" s="22">
         <v>55.43</v>
       </c>
-      <c r="C163" s="3">
+      <c r="C163" s="23">
         <v>46.32</v>
       </c>
-      <c r="D163" s="3">
+      <c r="D163" s="23">
         <v>839.98</v>
       </c>
-      <c r="E163" s="2">
+      <c r="E163" s="22">
         <v>1613</v>
       </c>
-      <c r="F163" s="5" t="s">
+      <c r="F163" s="24" t="s">
         <v>158</v>
       </c>
     </row>
@@ -6578,63 +6605,63 @@
         <v>497</v>
       </c>
     </row>
-    <row r="179" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A179" s="1" t="s">
+    <row r="179" spans="1:6" s="25" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A179" s="21" t="s">
         <v>245</v>
       </c>
-      <c r="B179" s="2">
+      <c r="B179" s="22">
         <v>103.17</v>
       </c>
-      <c r="C179" s="3">
+      <c r="C179" s="23">
         <v>112.58</v>
       </c>
-      <c r="D179" s="3">
+      <c r="D179" s="23">
         <v>664.43</v>
       </c>
-      <c r="E179" s="6">
+      <c r="E179" s="27">
         <v>1808.69</v>
       </c>
-      <c r="F179" s="5" t="s">
+      <c r="F179" s="24" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="180" spans="1:6" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A180" s="1" t="s">
+    <row r="180" spans="1:6" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A180" s="21" t="s">
         <v>712</v>
       </c>
-      <c r="B180" s="2">
+      <c r="B180" s="22">
         <v>24.26</v>
       </c>
-      <c r="C180" s="9">
+      <c r="C180" s="28">
         <v>35.229999999999997</v>
       </c>
-      <c r="D180" s="9">
+      <c r="D180" s="28">
         <v>337.69</v>
       </c>
-      <c r="E180" s="2">
+      <c r="E180" s="22">
         <v>1811.95</v>
       </c>
-      <c r="F180" s="5" t="s">
+      <c r="F180" s="24" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="181" spans="1:6" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A181" s="1" t="s">
+    <row r="181" spans="1:6" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A181" s="21" t="s">
         <v>705</v>
       </c>
-      <c r="B181" s="2">
+      <c r="B181" s="22">
         <v>58.76</v>
       </c>
-      <c r="C181" s="9">
+      <c r="C181" s="28">
         <v>103.07</v>
       </c>
-      <c r="D181" s="3">
+      <c r="D181" s="23">
         <v>1355.95</v>
       </c>
-      <c r="E181" s="3">
+      <c r="E181" s="23">
         <v>1832.25</v>
       </c>
-      <c r="F181" s="5" t="s">
+      <c r="F181" s="24" t="s">
         <v>679</v>
       </c>
     </row>
